--- a/liensAllUserIT.xlsx
+++ b/liensAllUserIT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\542879\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B19107DC-B736-4E22-9C69-76B12215C4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41723054-D363-4139-B046-36074C2FF2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57945" yWindow="2445" windowWidth="21255" windowHeight="17325" xr2:uid="{F0AEFC0C-7056-4ECD-97B2-C750CBC90A7F}"/>
+    <workbookView xWindow="28695" yWindow="75" windowWidth="26010" windowHeight="20985" xr2:uid="{F0AEFC0C-7056-4ECD-97B2-C750CBC90A7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="71">
   <si>
     <t>OutilsIT</t>
   </si>
@@ -44,42 +44,18 @@
     <t>Liens :</t>
   </si>
   <si>
-    <t>Easy-It</t>
-  </si>
-  <si>
-    <t>https://easy-it.kiabi.fr/</t>
-  </si>
-  <si>
     <t>Forecast &amp; Replenishment</t>
   </si>
   <si>
     <t>https://fr-kiabi.retail.infor.com/</t>
   </si>
   <si>
-    <t>Risorse umaneIT</t>
-  </si>
-  <si>
-    <t>https://iamuaprod.kiabi.fr/idmdash</t>
-  </si>
-  <si>
-    <t>K'IAM</t>
-  </si>
-  <si>
-    <t>TalentEd</t>
-  </si>
-  <si>
-    <t>https://talented.gcp.kiabi.pro</t>
-  </si>
-  <si>
     <t>InformaticaIT</t>
   </si>
   <si>
     <t>Bastion</t>
   </si>
   <si>
-    <t>https://bastion.kiabi.fr/</t>
-  </si>
-  <si>
     <t>Solarwinds</t>
   </si>
   <si>
@@ -222,12 +198,6 @@
   </si>
   <si>
     <t>DecisionnelIT</t>
-  </si>
-  <si>
-    <t>Kiperf</t>
-  </si>
-  <si>
-    <t>https://kiperf.kiabi.pro/</t>
   </si>
   <si>
     <t>microsoft-edge:https://bo.kiabi.fr:8443/BOE/BI</t>
@@ -285,7 +255,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,6 +283,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -335,7 +316,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -343,7 +324,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -683,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B3AAD6-30C8-4F95-98CD-0FA91E4CFF5B}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -692,585 +677,576 @@
     <col min="1" max="1" width="21.109375" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" customWidth="1"/>
     <col min="3" max="3" width="65.21875" customWidth="1"/>
-    <col min="4" max="4" width="122.44140625" customWidth="1"/>
+    <col min="4" max="4" width="90.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D6" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="C23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="D35" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="C36" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="C37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="C38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="C39" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="B40" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E36" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E37" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E38" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E39" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>54</v>
+      <c r="C40" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="E40" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1301,7 +1277,6 @@
   <hyperlinks>
     <hyperlink ref="D6" r:id="rId1" xr:uid="{CDFE6F45-0E8D-47E8-8DE0-DAF90F1F3C2C}"/>
     <hyperlink ref="D24" r:id="rId2" xr:uid="{D35DCB64-0593-4740-92C2-78587D98D209}"/>
-    <hyperlink ref="D29" r:id="rId3" xr:uid="{5331D2F1-6955-45CE-B0B4-16C7CC7F6336}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
